--- a/biology/Zoologie/Africoptilium/Africoptilium.xlsx
+++ b/biology/Zoologie/Africoptilium/Africoptilium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Africoptilium est un genre de coléoptères de la famille des Ptiliidae. Le genre a été créé par Colin Johnson en 1967[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Africoptilium est un genre de coléoptères de la famille des Ptiliidae. Le genre a été créé par Colin Johnson en 1967.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 décembre 2023)[2] :
-Africoptilium concinnum, Johnson, 1967[3] ;
-Africoptilium marginatum, Johnson, 1967[3] ;
-Africoptilium mimicum, Johnson, 1967[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 décembre 2023) :
+Africoptilium concinnum, Johnson, 1967 ;
+Africoptilium marginatum, Johnson, 1967 ;
+Africoptilium mimicum, Johnson, 1967.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Colin Johnson, « Studies on Ethiopian Ptiliidae. 1. Afticoptilium gen. n. from Central Africa », The Entomologist, Londres, Inconnu,‎ 1967, p. 288–292 (ISSN 0013-8878, OCLC 7322611)
 </t>
